--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1288387.976574783</v>
+        <v>1286500.395058381</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507371.3461576474</v>
+        <v>227186.7021201976</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>227.6599794570907</v>
+        <v>276.3850581216917</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.45053986357411</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>4.977754783587348</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>308.9734542191751</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>293.842063945176</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>56.57756245340212</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>11.6788446020113</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>215.8457181754135</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>212.4613476457871</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>43.31785343913992</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>123.3397726353231</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>101.2411891194821</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>97.57844865856694</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>11.48409619236185</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>194.9576419790504</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>49.38162151975406</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>111.8652689647488</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>29.1893754712106</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>51.72341675334701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>91.73458974969083</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>118.242292027059</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>143.3158222056516</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>112.723211152023</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965534</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180119</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897886</v>
+        <v>22.14609241444619</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357147</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752355</v>
+        <v>54.76109577523576</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>153.0356584760531</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174109</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898724</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857176</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692858</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329065</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.361678333737</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789553</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463138</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415208</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1763.586886263858</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1763.586886263858</v>
+        <v>1890.547122773323</v>
       </c>
       <c r="W2" t="n">
-        <v>1763.586886263858</v>
+        <v>1537.778467503209</v>
       </c>
       <c r="X2" t="n">
-        <v>1763.586886263858</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="Y2" t="n">
-        <v>1763.586886263858</v>
+        <v>1164.312709242129</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4413,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,19 +4431,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329.7728273507103</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>329.7728273507103</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>329.7728273507103</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>466.3758425937212</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942404</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y4" t="n">
-        <v>329.7728273507103</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1580.775345511217</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1795.61268157602</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.7397945496688</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>65.7397945496688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>65.7397945496688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>65.7397945496688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>65.7397945496688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>65.7397945496688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>65.7397945496688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931989</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931989</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931989</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931989</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>286.5323736931989</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>65.7397945496688</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1386.09000478155</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C8" t="n">
-        <v>1017.127487841138</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>1017.127487841138</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1017.127487841138</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.09000478155</v>
+        <v>1928.871178043376</v>
       </c>
       <c r="Y8" t="n">
-        <v>1386.09000478155</v>
+        <v>1714.263756178945</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124031</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124031</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="V10" t="n">
-        <v>336.2769833124031</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W10" t="n">
-        <v>336.2769833124031</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,55 +5015,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805473</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823853</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514152</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795212</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515102</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>646.719368666277</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M12" t="n">
-        <v>967.0546881959788</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N12" t="n">
-        <v>1771.466266460129</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5154,7 +5154,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
         <v>1571.258395043133</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>665.6859735286105</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>563.4221461351942</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471179</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.9162705579</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.9162705579</v>
+        <v>1289.277077565619</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.9162705579</v>
+        <v>1065.491662355125</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771458</v>
+        <v>776.3630235686834</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655711</v>
+        <v>776.3630235686834</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286105</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286105</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.6859735286105</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,43 +5264,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619124</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899121</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207823</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028587</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M15" t="n">
-        <v>865.5852378527466</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="N15" t="n">
-        <v>1669.996816116897</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O15" t="n">
-        <v>2339.460577419555</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2522.104055032906</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5391,7 +5391,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.9727323706987</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>653.9727323706987</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706987</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883056</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473452</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262958</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.210845262958</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.210845262958</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W16" t="n">
-        <v>1063.610748098956</v>
+        <v>696.5850465240056</v>
       </c>
       <c r="X16" t="n">
-        <v>835.6211972009385</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.6211972009385</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,22 +5501,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M18" t="n">
-        <v>629.3975440735811</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.809122337732</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>441.9005583181186</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>441.9005583181186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>441.9005583181186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>293.9874647357256</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>147.0975172378152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609661</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550792</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181186</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X19" t="n">
-        <v>441.9005583181186</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.9005583181186</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,28 +5735,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028587</v>
+        <v>229.0376539332498</v>
       </c>
       <c r="M21" t="n">
-        <v>417.5524109899877</v>
+        <v>549.3729734629516</v>
       </c>
       <c r="N21" t="n">
-        <v>1221.963989254138</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.0432218861031</v>
+        <v>126.7013091079733</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>126.7013091079733</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227918</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V22" t="n">
-        <v>874.9271131227918</v>
+        <v>644.1080300429512</v>
       </c>
       <c r="W22" t="n">
-        <v>874.9271131227918</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X22" t="n">
-        <v>646.9375622247744</v>
+        <v>126.7013091079733</v>
       </c>
       <c r="Y22" t="n">
-        <v>594.6916867163428</v>
+        <v>126.7013091079733</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605665</v>
+        <v>549.3729734629519</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924717</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>939.0590370781813</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>770.1228541502744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>620.0062147379388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705743</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705743</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799367</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119729</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119729</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119729</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.841167119729</v>
+        <v>555.5704444251534</v>
       </c>
       <c r="W25" t="n">
-        <v>1387.841167119729</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X25" t="n">
-        <v>1159.851616221711</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y25" t="n">
-        <v>939.0590370781813</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,25 +6306,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899877</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022017</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.043221886103</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028587</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799367</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1185.134431026968</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1185.134431026968</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>930.4499428210808</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>641.0327727841202</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>413.043221886103</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y28" t="n">
-        <v>413.043221886103</v>
+        <v>241.9805482336714</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6485,28 +6485,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>539.3723184115834</v>
       </c>
       <c r="M30" t="n">
-        <v>417.5524109899876</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N30" t="n">
-        <v>1221.963989254139</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O30" t="n">
-        <v>1891.427750556798</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P30" t="n">
-        <v>2411.728372292545</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>452.9755066752111</v>
+        <v>439.5324299542182</v>
       </c>
       <c r="C31" t="n">
-        <v>339.8001890286752</v>
+        <v>326.357112307682</v>
       </c>
       <c r="D31" t="n">
-        <v>339.8001890286752</v>
+        <v>232.001338176717</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6479607276531</v>
+        <v>232.001338176717</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276531</v>
+        <v>232.001338176717</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276531</v>
+        <v>119.5868817779083</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864675</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933507</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962062</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021649</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899273</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1582.071206888062</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1348.703433382991</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1149.779810458475</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>916.1235057028853</v>
+        <v>902.6804289818933</v>
       </c>
       <c r="X31" t="n">
-        <v>743.894820086239</v>
+        <v>730.4517433652467</v>
       </c>
       <c r="Y31" t="n">
-        <v>578.8631062240798</v>
+        <v>565.4200295030871</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514088</v>
@@ -6707,10 +6707,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6719,19 +6719,19 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,7 +6856,7 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254958</v>
@@ -6865,31 +6865,31 @@
         <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6938,10 +6938,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6974,7 +6974,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7017,25 +7017,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>549.3729734629512</v>
       </c>
       <c r="M36" t="n">
-        <v>417.5524109899877</v>
+        <v>549.3729734629512</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022017</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7093,16 +7093,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7111,10 +7111,10 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,61 +7163,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514049</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795203</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515094</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643321</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207827</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504514</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7427,10 +7427,10 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7494,22 +7494,22 @@
         <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1672.759814717972</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028586</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,16 +7582,16 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7670,28 +7670,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7731,22 @@
         <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7786,31 +7786,31 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,7 +7819,7 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184157</v>
@@ -7828,13 +7828,13 @@
         <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>390.1682609186325</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,7 +9483,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>271.7064630858983</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9720,10 +9720,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>370.862340184928</v>
+        <v>366.5711815324394</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>201.7092951357256</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>180.2368173133617</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11148,16 +11148,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>347.1774388993324</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>373.1879724591382</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>66.00563197914572</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836033</v>
+        <v>100.3423613250363</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>275.0389021442292</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>30.75201340998672</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>117.1119469436235</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>174.3720834338285</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>119.4260975470018</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.8612365987478</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>54.69937289687828</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>133.895351296769</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>5.299650812560742</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>108.8243499063662</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965509</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801216</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437398</v>
+        <v>90.21779139437423</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>71.56447932453293</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571496</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>13.30864595377885</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>958021.196357387</v>
+        <v>958021.1963573871</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>958021.1963573869</v>
+        <v>958021.1963573871</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>958021.1963573871</v>
+        <v>958021.196357387</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958021.1963573872</v>
+        <v>958021.1963573871</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>958021.1963573874</v>
+        <v>958021.1963573871</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>996714.2364959123</v>
+        <v>996714.2364959122</v>
       </c>
     </row>
     <row r="12">
@@ -26317,25 +26317,25 @@
         <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="E2" t="n">
+        <v>410580.5127245944</v>
+      </c>
+      <c r="F2" t="n">
+        <v>410580.5127245944</v>
+      </c>
+      <c r="G2" t="n">
+        <v>410580.5127245945</v>
+      </c>
+      <c r="H2" t="n">
         <v>410580.5127245943</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>410580.5127245943</v>
       </c>
-      <c r="G2" t="n">
-        <v>410580.5127245942</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>410580.5127245944</v>
-      </c>
-      <c r="I2" t="n">
-        <v>410580.5127245944</v>
-      </c>
-      <c r="J2" t="n">
-        <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
         <v>427163.2442125333</v>
@@ -26347,7 +26347,7 @@
         <v>431046.9291787487</v>
       </c>
       <c r="N2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="O2" t="n">
         <v>431046.9291787487</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476895</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.149070499195659e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284577</v>
+        <v>44162.60530284578</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086682</v>
+        <v>10342.90680086693</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758685</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758825</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758514</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758772</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477247</v>
+        <v>18952.41620477233</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189629</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189645</v>
       </c>
       <c r="O4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189635</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26488,25 +26488,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002536</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-380839.1672798245</v>
+        <v>-380839.1672798244</v>
       </c>
       <c r="C6" t="n">
+        <v>209128.7119347201</v>
+      </c>
+      <c r="D6" t="n">
         <v>209128.7119347203</v>
       </c>
-      <c r="D6" t="n">
-        <v>209128.7119347202</v>
-      </c>
       <c r="E6" t="n">
-        <v>-207354.6433915931</v>
+        <v>-207452.1025175663</v>
       </c>
       <c r="F6" t="n">
-        <v>317805.3930853019</v>
+        <v>317707.9339593298</v>
       </c>
       <c r="G6" t="n">
-        <v>317805.3930853006</v>
+        <v>317707.9339593298</v>
       </c>
       <c r="H6" t="n">
-        <v>317805.393085302</v>
+        <v>317707.9339593296</v>
       </c>
       <c r="I6" t="n">
-        <v>317805.3930853019</v>
+        <v>317707.9339593297</v>
       </c>
       <c r="J6" t="n">
-        <v>141382.1738927088</v>
+        <v>141284.7147667368</v>
       </c>
       <c r="K6" t="n">
-        <v>267420.0141746922</v>
+        <v>267401.5204367581</v>
       </c>
       <c r="L6" t="n">
-        <v>299782.3356259601</v>
+        <v>299782.33562596</v>
       </c>
       <c r="M6" t="n">
         <v>175324.2271929899</v>
       </c>
       <c r="N6" t="n">
-        <v>310125.2424268269</v>
+        <v>310125.242426827</v>
       </c>
       <c r="O6" t="n">
         <v>310125.242426827</v>
       </c>
       <c r="P6" t="n">
-        <v>265962.6371239812</v>
+        <v>265962.6371239814</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26756,10 +26756,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541004</v>
@@ -26814,10 +26814,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="L4" t="n">
         <v>1215.213643253573</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108338</v>
+        <v>12.92863350108367</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370121</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990174</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>100.0922790130442</v>
+        <v>51.36720034844319</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.623767952376511e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>63.98342278299506</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>281.3041194583904</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>56.29943755183245</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>55.39890477223702</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>123.2544177285352</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>123.2867771903269</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>191.0303275662979</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>173.7765910102665</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>181.7172520189444</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>102.3698827537141</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -31133,7 +31133,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>132.9984977071298</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31616,25 +31616,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578339</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31844,34 +31844,34 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>196.1430416967723</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813454</v>
+        <v>388.9994826499789</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855519</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361477</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263747</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337658</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446547</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32081,34 +32081,34 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724838</v>
+        <v>406.6697085212133</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855519</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.39888063626533</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361477</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263747</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337658</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,25 +32318,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>213.9849829127208</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32564,13 +32564,13 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>330.1172231204812</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -32798,25 +32798,25 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,19 +33014,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33035,25 +33035,25 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>380.4309478731432</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33205,7 +33205,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
         <v>76.06970478104651</v>
@@ -33266,25 +33266,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>87.71167780314238</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>143.8894692628924</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622983</v>
@@ -33506,22 +33506,22 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>100.5826050876808</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33737,7 +33737,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -33746,7 +33746,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>380.4309478731432</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855527</v>
@@ -33755,10 +33755,10 @@
         <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33895,7 +33895,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041453</v>
       </c>
       <c r="L38" t="n">
         <v>526.7962671304441</v>
@@ -33916,7 +33916,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104651</v>
@@ -33977,25 +33977,25 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508801</v>
+        <v>45.93795062015323</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946974</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647497</v>
@@ -34214,13 +34214,13 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34229,10 +34229,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104651</v>
@@ -34451,25 +34451,25 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34781,19 +34781,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901189</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349773</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>428.4290072203573</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415657</v>
+        <v>737.0001449101991</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178369</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556535</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970350501</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004653</v>
+        <v>730.2407383491949</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415657</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178369</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.4943942860929</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556535</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>537.5560127407024</v>
+        <v>248.0342269966143</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>133.1520833060242</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
@@ -36212,13 +36212,13 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>581.3832979527663</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>10.73738595686865</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>228.7283062629097</v>
+        <v>224.4371476104211</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415071</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>728.4316101333634</v>
+        <v>70.36758305239231</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>319.9976433267274</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.98498291272</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412282</v>
+        <v>67.71102679412256</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491602</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043204</v>
+        <v>94.42895660043179</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
@@ -37154,22 +37154,22 @@
         <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>285.0709663132877</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>41.68243753348751</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>728.4316101333634</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
         <v>676.2260215178378</v>
@@ -37403,10 +37403,10 @@
         <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37482,7 +37482,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303294</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109073</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111003</v>
+        <v>393.9386128803735</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
@@ -37713,13 +37713,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>215.8357268159991</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502436</v>
@@ -37956,7 +37956,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>230.5917280146938</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502436</v>
